--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Área de Trabalho\Transportation - Camila\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F995144-46F9-4F0C-AB57-B1E17328474A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="SYVbT-passenger" sheetId="2" r:id="rId10"/>
     <sheet name="SYVbT-freight" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -680,15 +679,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -1499,7 +1498,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -1534,28 +1533,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1644,7 +1643,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1681,7 +1680,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
@@ -1699,11 +1698,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1750,7 +1749,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1797,7 +1796,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1805,163 +1804,163 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="143">
-    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="15"/>
+    <cellStyle name="20% - Accent2 2" xfId="16"/>
+    <cellStyle name="20% - Accent3 2" xfId="17"/>
+    <cellStyle name="20% - Accent4 2" xfId="18"/>
+    <cellStyle name="20% - Accent5 2" xfId="19"/>
+    <cellStyle name="20% - Accent6 2" xfId="20"/>
+    <cellStyle name="40% - Accent1 2" xfId="21"/>
+    <cellStyle name="40% - Accent2 2" xfId="22"/>
+    <cellStyle name="40% - Accent3 2" xfId="23"/>
+    <cellStyle name="40% - Accent4 2" xfId="24"/>
+    <cellStyle name="40% - Accent5 2" xfId="25"/>
+    <cellStyle name="40% - Accent6 2" xfId="26"/>
+    <cellStyle name="60% - Accent1 2" xfId="27"/>
+    <cellStyle name="60% - Accent2 2" xfId="28"/>
+    <cellStyle name="60% - Accent3 2" xfId="29"/>
+    <cellStyle name="60% - Accent4 2" xfId="30"/>
+    <cellStyle name="60% - Accent5 2" xfId="31"/>
+    <cellStyle name="60% - Accent6 2" xfId="32"/>
+    <cellStyle name="Accent1 2" xfId="33"/>
+    <cellStyle name="Accent2 2" xfId="34"/>
+    <cellStyle name="Accent3 2" xfId="35"/>
+    <cellStyle name="Accent4 2" xfId="36"/>
+    <cellStyle name="Accent5 2" xfId="37"/>
+    <cellStyle name="Accent6 2" xfId="38"/>
+    <cellStyle name="Bad 2" xfId="39"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Calculation 2" xfId="40"/>
+    <cellStyle name="Check Cell 2" xfId="41"/>
     <cellStyle name="Comma" xfId="141" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Comma 2" xfId="42"/>
+    <cellStyle name="Comma 2 2" xfId="11"/>
+    <cellStyle name="Comma 2 2 2" xfId="43"/>
+    <cellStyle name="Comma 2 2 3" xfId="44"/>
+    <cellStyle name="Comma 2 3" xfId="45"/>
+    <cellStyle name="Comma 3" xfId="46"/>
+    <cellStyle name="Comma 4" xfId="47"/>
+    <cellStyle name="Comma 5" xfId="48"/>
+    <cellStyle name="Comma 6" xfId="49"/>
+    <cellStyle name="Comma 7" xfId="50"/>
+    <cellStyle name="Currency 2" xfId="51"/>
+    <cellStyle name="Currency 3" xfId="52"/>
+    <cellStyle name="Currency 3 2" xfId="53"/>
+    <cellStyle name="Data" xfId="54"/>
+    <cellStyle name="Data no deci" xfId="55"/>
+    <cellStyle name="Data Superscript" xfId="56"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
+    <cellStyle name="Explanatory Text 2" xfId="58"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Good 2" xfId="59"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Heading 1 2" xfId="60"/>
+    <cellStyle name="Heading 2 2" xfId="61"/>
+    <cellStyle name="Heading 3 2" xfId="62"/>
+    <cellStyle name="Heading 4 2" xfId="63"/>
+    <cellStyle name="Hed Side" xfId="13"/>
+    <cellStyle name="Hed Side bold" xfId="64"/>
+    <cellStyle name="Hed Side Indent" xfId="65"/>
+    <cellStyle name="Hed Side Regular" xfId="66"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
+    <cellStyle name="Hed Top" xfId="68"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Input 2" xfId="69"/>
+    <cellStyle name="Linked Cell 2" xfId="70"/>
+    <cellStyle name="Neutral 2" xfId="71"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 10" xfId="72"/>
+    <cellStyle name="Normal 11" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="73"/>
+    <cellStyle name="Normal 2 2 2" xfId="74"/>
+    <cellStyle name="Normal 2 2 3" xfId="75"/>
+    <cellStyle name="Normal 2 3" xfId="76"/>
+    <cellStyle name="Normal 2 4" xfId="77"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="78"/>
+    <cellStyle name="Normal 3 2 2" xfId="79"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
+    <cellStyle name="Normal 3 2 3" xfId="81"/>
+    <cellStyle name="Normal 3 3" xfId="82"/>
+    <cellStyle name="Normal 3 3 2" xfId="83"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
+    <cellStyle name="Normal 3 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 4" xfId="86"/>
+    <cellStyle name="Normal 3 4 2" xfId="87"/>
+    <cellStyle name="Normal 3 5" xfId="88"/>
+    <cellStyle name="Normal 3 6" xfId="89"/>
+    <cellStyle name="Normal 3 7" xfId="90"/>
+    <cellStyle name="Normal 3 8" xfId="91"/>
+    <cellStyle name="Normal 3 9" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="92"/>
+    <cellStyle name="Normal 4 2" xfId="93"/>
+    <cellStyle name="Normal 4 2 2" xfId="94"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 3" xfId="96"/>
+    <cellStyle name="Normal 4 3" xfId="97"/>
+    <cellStyle name="Normal 4 3 2" xfId="98"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
+    <cellStyle name="Normal 4 3 3" xfId="100"/>
+    <cellStyle name="Normal 4 4" xfId="101"/>
+    <cellStyle name="Normal 4 4 2" xfId="102"/>
+    <cellStyle name="Normal 4 5" xfId="103"/>
+    <cellStyle name="Normal 4 6" xfId="104"/>
+    <cellStyle name="Normal 4 7" xfId="105"/>
+    <cellStyle name="Normal 4 8" xfId="106"/>
+    <cellStyle name="Normal 5" xfId="107"/>
+    <cellStyle name="Normal 5 2" xfId="108"/>
+    <cellStyle name="Normal 5 3" xfId="109"/>
+    <cellStyle name="Normal 6" xfId="110"/>
+    <cellStyle name="Normal 6 2" xfId="111"/>
+    <cellStyle name="Normal 7" xfId="112"/>
+    <cellStyle name="Normal 8" xfId="113"/>
+    <cellStyle name="Normal 9" xfId="114"/>
+    <cellStyle name="Note 2" xfId="115"/>
+    <cellStyle name="Note 2 2" xfId="116"/>
+    <cellStyle name="Output 2" xfId="117"/>
+    <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Percent" xfId="142" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Percent 2" xfId="118"/>
+    <cellStyle name="Percent 2 2" xfId="119"/>
+    <cellStyle name="Percent 3" xfId="120"/>
+    <cellStyle name="Percent 3 2" xfId="121"/>
+    <cellStyle name="Source Hed" xfId="122"/>
+    <cellStyle name="Source Superscript" xfId="123"/>
+    <cellStyle name="Source Text" xfId="9"/>
+    <cellStyle name="State" xfId="124"/>
+    <cellStyle name="Superscript" xfId="125"/>
+    <cellStyle name="Table Data" xfId="126"/>
+    <cellStyle name="Table Head Top" xfId="127"/>
+    <cellStyle name="Table Hed Side" xfId="128"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Title 2" xfId="129"/>
+    <cellStyle name="Title Text" xfId="130"/>
+    <cellStyle name="Title Text 1" xfId="131"/>
+    <cellStyle name="Title Text 2" xfId="132"/>
+    <cellStyle name="Title-1" xfId="14"/>
+    <cellStyle name="Title-2" xfId="133"/>
+    <cellStyle name="Title-3" xfId="134"/>
+    <cellStyle name="Total 2" xfId="135"/>
+    <cellStyle name="Warning Text 2" xfId="136"/>
+    <cellStyle name="Wrap" xfId="137"/>
+    <cellStyle name="Wrap Bold" xfId="138"/>
+    <cellStyle name="Wrap Title" xfId="139"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2248,23 +2247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2300,23 +2282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2492,20 +2457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" customWidth="1"/>
     <col min="3" max="3" width="39" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="47.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.86328125" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3639,14 +3604,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{22FB2A79-B110-4A84-A1D6-74396BD0DE6B}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{FA527788-FC13-4A35-9761-6F5E514D07FE}"/>
-    <hyperlink ref="B32" r:id="rId3" xr:uid="{B8AD06BB-272E-49BA-98F1-7AF6E1332A4C}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{31C4FE44-EDBB-48B3-B60B-FE202EC4CD3C}"/>
-    <hyperlink ref="B49" r:id="rId5" xr:uid="{D707A7F5-51F1-44C0-925C-06D7497E31C6}"/>
-    <hyperlink ref="B40" r:id="rId6" xr:uid="{B01E9B0C-298F-4EA5-94D5-DA7D6D764EAC}"/>
-    <hyperlink ref="B66" r:id="rId7" xr:uid="{01EFEE8A-E7D6-4D72-8DBE-72AD1DDBBE87}"/>
-    <hyperlink ref="B57" r:id="rId8" xr:uid="{99344B26-BF27-44FE-9903-44738D77BE38}"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B49" r:id="rId5"/>
+    <hyperlink ref="B40" r:id="rId6"/>
+    <hyperlink ref="B66" r:id="rId7"/>
+    <hyperlink ref="B57" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -3654,29 +3619,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -3868,6 +3833,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="D11" s="44"/>
       <c r="N11" t="s">
         <v>26</v>
       </c>
@@ -3881,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3891,19 +3857,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -4096,17 +4062,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="37" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6893,16 +6859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -6973,124 +6939,124 @@
     <row r="20" spans="1:42" s="12" customFormat="1">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="68">
+      <c r="C20" s="66">
         <v>2011</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="67">
         <v>2012</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="67">
         <v>2013</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="67">
         <v>2014</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="67">
         <v>2015</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="67">
         <v>2016</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="67">
         <v>2017</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="67">
         <v>2018</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="67">
         <v>2019</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="67">
         <v>2020</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="67">
         <v>2021</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="67">
         <v>2022</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="67">
         <v>2023</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="67">
         <v>2024</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="Q20" s="67">
         <v>2025</v>
       </c>
-      <c r="R20" s="69">
+      <c r="R20" s="67">
         <v>2026</v>
       </c>
-      <c r="S20" s="69">
+      <c r="S20" s="67">
         <v>2027</v>
       </c>
-      <c r="T20" s="69">
+      <c r="T20" s="67">
         <v>2028</v>
       </c>
-      <c r="U20" s="69">
+      <c r="U20" s="67">
         <v>2029</v>
       </c>
-      <c r="V20" s="69">
+      <c r="V20" s="67">
         <v>2030</v>
       </c>
-      <c r="W20" s="69">
+      <c r="W20" s="67">
         <v>2031</v>
       </c>
-      <c r="X20" s="69">
+      <c r="X20" s="67">
         <v>2032</v>
       </c>
-      <c r="Y20" s="69">
+      <c r="Y20" s="67">
         <v>2033</v>
       </c>
-      <c r="Z20" s="69">
+      <c r="Z20" s="67">
         <v>2034</v>
       </c>
-      <c r="AA20" s="69">
+      <c r="AA20" s="67">
         <v>2035</v>
       </c>
-      <c r="AB20" s="69">
+      <c r="AB20" s="67">
         <v>2036</v>
       </c>
-      <c r="AC20" s="69">
+      <c r="AC20" s="67">
         <v>2037</v>
       </c>
-      <c r="AD20" s="69">
+      <c r="AD20" s="67">
         <v>2038</v>
       </c>
-      <c r="AE20" s="69">
+      <c r="AE20" s="67">
         <v>2039</v>
       </c>
-      <c r="AF20" s="69">
+      <c r="AF20" s="67">
         <v>2040</v>
       </c>
-      <c r="AG20" s="69">
+      <c r="AG20" s="67">
         <v>2041</v>
       </c>
-      <c r="AH20" s="69">
+      <c r="AH20" s="67">
         <v>2042</v>
       </c>
-      <c r="AI20" s="69">
+      <c r="AI20" s="67">
         <v>2043</v>
       </c>
-      <c r="AJ20" s="69">
+      <c r="AJ20" s="67">
         <v>2044</v>
       </c>
-      <c r="AK20" s="69">
+      <c r="AK20" s="67">
         <v>2045</v>
       </c>
-      <c r="AL20" s="69">
+      <c r="AL20" s="67">
         <v>2046</v>
       </c>
-      <c r="AM20" s="69">
+      <c r="AM20" s="67">
         <v>2047</v>
       </c>
-      <c r="AN20" s="69">
+      <c r="AN20" s="67">
         <v>2048</v>
       </c>
-      <c r="AO20" s="69">
+      <c r="AO20" s="67">
         <v>2049</v>
       </c>
-      <c r="AP20" s="69">
+      <c r="AP20" s="67">
         <v>2050</v>
       </c>
     </row>
@@ -9612,14 +9578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="39" t="s">
@@ -9655,7 +9621,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -9663,25 +9629,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.265625" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10293,44 +10259,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9.265625" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.265625" style="56" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="56" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" style="56" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" style="56" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.3984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.265625" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.59765625" style="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.1328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.3984375" style="56" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.73046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1328125" style="56" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="34" style="56" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="56" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29" style="56" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.3984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.73046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.3984375" style="56" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="56" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="56"/>
+    <col min="30" max="16384" width="9.1328125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10384,14 +10350,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A23" s="67" t="s">
+    <row r="23" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A23" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:11" ht="48" thickBot="1">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+    </row>
+    <row r="24" spans="1:11" ht="45.4" thickBot="1">
       <c r="A24" s="57" t="s">
         <v>115</v>
       </c>
@@ -10873,11 +10839,11 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="27">
@@ -11348,11 +11314,11 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="27">
@@ -11823,11 +11789,11 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="66" t="s">
+      <c r="A144" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="27">
@@ -12298,11 +12264,11 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="66" t="s">
+      <c r="A184" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="66"/>
-      <c r="C184" s="66"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="68"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="27">
@@ -12773,11 +12739,11 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="66" t="s">
+      <c r="A224" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B224" s="66"/>
-      <c r="C224" s="66"/>
+      <c r="B224" s="68"/>
+      <c r="C224" s="68"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="27">
@@ -13247,7 +13213,7 @@
         <v>0.2589593060491901</v>
       </c>
     </row>
-    <row r="266" spans="1:23" s="62" customFormat="1" ht="17.25">
+    <row r="266" spans="1:23" s="62" customFormat="1" ht="18.75">
       <c r="A266" s="62" t="s">
         <v>78</v>
       </c>
@@ -16099,14 +16065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -16169,32 +16135,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.86328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16597,17 +16563,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16677,7 +16643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="23" customFormat="1" ht="18.75">
+    <row r="17" spans="1:2" s="23" customFormat="1" ht="18">
       <c r="A17" s="42" t="s">
         <v>78</v>
       </c>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A52C0A-6B3B-4467-AD72-335B9891BCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
+    <workbookView xWindow="52110" yWindow="915" windowWidth="14535" windowHeight="13170" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,8 +26,16 @@
     <sheet name="SYVbT-passenger" sheetId="11" r:id="rId11"/>
     <sheet name="SYVbT-freight" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mgCTfjfaO5/SRlT0l4BjwZmaEwyaQ=="/>
     </ext>
@@ -731,7 +740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -871,7 +880,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +921,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1086,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1227,14 +1242,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,7 +1281,13 @@
     <xdr:ext cx="7219950" cy="3152775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1297,7 +1320,13 @@
     <xdr:ext cx="4667250" cy="6657975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.png"/>
+        <xdr:cNvPr id="2" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1330,7 +1359,13 @@
     <xdr:ext cx="5695950" cy="2857500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1363,7 +1398,13 @@
     <xdr:ext cx="6858000" cy="3333750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png"/>
+        <xdr:cNvPr id="2" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1581,10 +1622,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6431,15 +6472,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
-    <hyperlink ref="B37" r:id="rId5"/>
-    <hyperlink ref="B45" r:id="rId6"/>
-    <hyperlink ref="B54" r:id="rId7"/>
-    <hyperlink ref="B62" r:id="rId8"/>
-    <hyperlink ref="B71" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B62" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B71" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6447,7 +6488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7862,14 +7903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7882,7 +7923,8 @@
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="26" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
@@ -7923,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="36">
-        <f>SUM('passenger-Road'!D25:D27,'passenger-Road'!D31:D33)</f>
+        <f>SUM('passenger-Road'!D25:D28,'passenger-Road'!D31:D33)</f>
         <v>42168415</v>
       </c>
       <c r="E2" s="36">
@@ -7940,6 +7982,7 @@
       <c r="H2" s="36">
         <v>0</v>
       </c>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9081,7 +9124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
   </sheetPr>
@@ -10289,10 +10332,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10490,7 +10535,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="6">
@@ -10499,7 +10544,7 @@
       <c r="C25" s="6">
         <v>8602111</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="75">
         <v>8060405</v>
       </c>
       <c r="E25" s="6">
@@ -10603,7 +10648,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="6">
@@ -10612,7 +10657,7 @@
       <c r="C26" s="6">
         <v>641135</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="75">
         <v>569505</v>
       </c>
       <c r="E26" s="6">
@@ -10716,7 +10761,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="6">
@@ -10725,7 +10770,7 @@
       <c r="C27" s="6">
         <v>26002358</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="75">
         <v>28563887</v>
       </c>
       <c r="E27" s="6">
@@ -10838,7 +10883,7 @@
       <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="75">
         <v>0</v>
       </c>
       <c r="E28" s="6">
@@ -10951,7 +10996,7 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="75">
         <v>0</v>
       </c>
       <c r="E29" s="6">
@@ -11064,7 +11109,7 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="75">
         <v>0</v>
       </c>
       <c r="E30" s="6">
@@ -11168,7 +11213,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="6">
@@ -11177,7 +11222,7 @@
       <c r="C31" s="6">
         <v>1570175</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="75">
         <v>1603295</v>
       </c>
       <c r="E31" s="6">
@@ -11281,7 +11326,7 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="6">
@@ -11290,7 +11335,7 @@
       <c r="C32" s="6">
         <v>54327</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="75">
         <v>47825</v>
       </c>
       <c r="E32" s="6">
@@ -11394,7 +11439,7 @@
       </c>
     </row>
     <row r="33" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="6">
@@ -11403,7 +11448,7 @@
       <c r="C33" s="6">
         <v>3013519</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="75">
         <v>3323498</v>
       </c>
       <c r="E33" s="6">
@@ -11516,7 +11561,7 @@
       <c r="C34" s="6">
         <v>2067042</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="75">
         <v>2200328</v>
       </c>
       <c r="E34" s="6">
@@ -11629,7 +11674,7 @@
       <c r="C35" s="6">
         <v>12645960</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="75">
         <v>12850190</v>
       </c>
       <c r="E35" s="6">
@@ -11742,7 +11787,7 @@
       <c r="C36" s="6">
         <v>4841656</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="75">
         <v>5541312</v>
       </c>
       <c r="E36" s="6">
@@ -11855,7 +11900,7 @@
       <c r="C37" s="6">
         <v>287249</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="75">
         <v>298421</v>
       </c>
       <c r="E37" s="6">
@@ -11968,7 +12013,7 @@
       <c r="C38" s="6">
         <v>97322</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="75">
         <v>100695</v>
       </c>
       <c r="E38" s="6">
@@ -12081,7 +12126,7 @@
       <c r="C39" s="6">
         <v>41813</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="75">
         <v>43442</v>
       </c>
       <c r="E39" s="6">
@@ -14049,13 +14094,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -14686,7 +14731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18480,7 +18525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19518,7 +19563,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -19527,7 +19572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25886,10 +25931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -26557,11 +26604,11 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -27986,11 +28033,11 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
@@ -29381,11 +29428,11 @@
       <c r="Z103" s="13"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="72" t="s">
+      <c r="A104" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="73"/>
-      <c r="C104" s="73"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -30776,11 +30823,11 @@
       <c r="Z143" s="13"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A144" s="72" t="s">
+      <c r="A144" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="73"/>
-      <c r="C144" s="73"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
@@ -32171,11 +32218,11 @@
       <c r="Z183" s="13"/>
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A184" s="72" t="s">
+      <c r="A184" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="B184" s="73"/>
-      <c r="C184" s="73"/>
+      <c r="B184" s="71"/>
+      <c r="C184" s="71"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
@@ -33566,11 +33613,11 @@
       <c r="Z223" s="13"/>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="72" t="s">
+      <c r="A224" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B224" s="73"/>
-      <c r="C224" s="73"/>
+      <c r="B224" s="71"/>
+      <c r="C224" s="71"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
@@ -57450,7 +57497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58511,7 +58558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
